--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationcard.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationcard.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16022" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16022" uniqueCount="810">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -418,7 +418,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1157,10 +1157,6 @@
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
   </si>
   <si>
@@ -1283,10 +1279,6 @@
     <t>The CH Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -1402,10 +1394,6 @@
     <t>The CH Core Practitioner is based upon the core FHIR Practitioner Resource and designed to meet the applicable practitioner demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -1628,10 +1616,6 @@
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -2450,10 +2434,6 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>OBX</t>
@@ -2878,17 +2858,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.71875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.54296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2897,26 +2877,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10958,16 +10938,16 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10975,7 +10955,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>278</v>
@@ -11087,7 +11067,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>282</v>
@@ -11199,7 +11179,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>283</v>
@@ -11313,7 +11293,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>284</v>
@@ -11429,7 +11409,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>285</v>
@@ -11543,7 +11523,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>291</v>
@@ -11657,7 +11637,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>296</v>
@@ -11769,7 +11749,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>300</v>
@@ -11881,7 +11861,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>301</v>
@@ -11995,7 +11975,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>302</v>
@@ -12111,7 +12091,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>303</v>
@@ -12223,7 +12203,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>308</v>
@@ -12337,7 +12317,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>312</v>
@@ -12449,7 +12429,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>315</v>
@@ -12561,7 +12541,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>317</v>
@@ -12673,7 +12653,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>320</v>
@@ -12785,7 +12765,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>323</v>
@@ -12897,7 +12877,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>327</v>
@@ -13009,7 +12989,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>328</v>
@@ -13123,7 +13103,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>329</v>
@@ -13239,7 +13219,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>330</v>
@@ -13351,7 +13331,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>333</v>
@@ -13463,7 +13443,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>336</v>
@@ -13577,7 +13557,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>340</v>
@@ -13691,7 +13671,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>344</v>
@@ -13805,13 +13785,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>78</v>
@@ -13836,7 +13816,7 @@
         <v>234</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>257</v>
@@ -13919,7 +13899,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>260</v>
@@ -14031,7 +14011,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>261</v>
@@ -14145,7 +14125,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>262</v>
@@ -14257,7 +14237,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>266</v>
@@ -14369,7 +14349,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>269</v>
@@ -14483,14 +14463,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14509,13 +14489,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14578,16 +14558,16 @@
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14595,7 +14575,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>278</v>
@@ -14707,7 +14687,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>282</v>
@@ -14819,7 +14799,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>283</v>
@@ -14933,7 +14913,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>284</v>
@@ -15049,7 +15029,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>285</v>
@@ -15163,7 +15143,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>291</v>
@@ -15277,7 +15257,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>296</v>
@@ -15389,7 +15369,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>300</v>
@@ -15501,7 +15481,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>301</v>
@@ -15615,7 +15595,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>302</v>
@@ -15731,7 +15711,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>303</v>
@@ -15843,7 +15823,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>308</v>
@@ -15957,7 +15937,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>312</v>
@@ -16069,7 +16049,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>315</v>
@@ -16181,7 +16161,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>317</v>
@@ -16293,7 +16273,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>320</v>
@@ -16405,7 +16385,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>323</v>
@@ -16517,7 +16497,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>327</v>
@@ -16629,7 +16609,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>328</v>
@@ -16743,7 +16723,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>329</v>
@@ -16859,7 +16839,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>330</v>
@@ -16971,7 +16951,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>333</v>
@@ -17083,7 +17063,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>336</v>
@@ -17197,7 +17177,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>340</v>
@@ -17311,7 +17291,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>344</v>
@@ -17425,13 +17405,13 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>78</v>
@@ -17539,7 +17519,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>260</v>
@@ -17651,7 +17631,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>261</v>
@@ -17765,7 +17745,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>262</v>
@@ -17877,7 +17857,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>266</v>
@@ -17989,7 +17969,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>269</v>
@@ -18103,7 +18083,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>274</v>
@@ -18129,13 +18109,13 @@
         <v>78</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18198,13 +18178,13 @@
         <v>78</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>78</v>
@@ -18215,7 +18195,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>278</v>
@@ -18327,7 +18307,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>282</v>
@@ -18439,7 +18419,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>283</v>
@@ -18553,7 +18533,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>284</v>
@@ -18669,7 +18649,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>285</v>
@@ -18783,7 +18763,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>291</v>
@@ -18897,7 +18877,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>296</v>
@@ -19009,7 +18989,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>300</v>
@@ -19121,7 +19101,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>301</v>
@@ -19235,7 +19215,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>302</v>
@@ -19351,7 +19331,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>303</v>
@@ -19463,7 +19443,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>308</v>
@@ -19577,7 +19557,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>312</v>
@@ -19689,7 +19669,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>315</v>
@@ -19801,7 +19781,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>317</v>
@@ -19913,7 +19893,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>320</v>
@@ -20025,7 +20005,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>323</v>
@@ -20137,7 +20117,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>327</v>
@@ -20249,7 +20229,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>328</v>
@@ -20363,7 +20343,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>329</v>
@@ -20479,7 +20459,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>330</v>
@@ -20591,7 +20571,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>333</v>
@@ -20703,7 +20683,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>336</v>
@@ -20817,7 +20797,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>340</v>
@@ -20931,7 +20911,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>344</v>
@@ -21045,13 +21025,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>78</v>
@@ -21159,7 +21139,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>260</v>
@@ -21271,7 +21251,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>261</v>
@@ -21385,7 +21365,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>262</v>
@@ -21497,7 +21477,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>266</v>
@@ -21609,7 +21589,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>269</v>
@@ -21723,7 +21703,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>274</v>
@@ -21749,13 +21729,13 @@
         <v>78</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21818,13 +21798,13 @@
         <v>78</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>78</v>
@@ -21835,7 +21815,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>278</v>
@@ -21947,7 +21927,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>282</v>
@@ -22059,7 +22039,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>283</v>
@@ -22173,7 +22153,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>284</v>
@@ -22289,7 +22269,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>285</v>
@@ -22403,7 +22383,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>291</v>
@@ -22517,7 +22497,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>296</v>
@@ -22629,7 +22609,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>300</v>
@@ -22741,7 +22721,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>301</v>
@@ -22855,7 +22835,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>302</v>
@@ -22971,7 +22951,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>303</v>
@@ -23083,7 +23063,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>308</v>
@@ -23197,7 +23177,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>312</v>
@@ -23309,7 +23289,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>315</v>
@@ -23421,7 +23401,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>317</v>
@@ -23533,7 +23513,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>320</v>
@@ -23645,7 +23625,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>323</v>
@@ -23757,7 +23737,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>327</v>
@@ -23869,7 +23849,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>328</v>
@@ -23983,7 +23963,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>329</v>
@@ -24099,7 +24079,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>330</v>
@@ -24211,7 +24191,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>333</v>
@@ -24323,7 +24303,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>336</v>
@@ -24437,7 +24417,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>340</v>
@@ -24551,7 +24531,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>344</v>
@@ -24665,13 +24645,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>78</v>
@@ -24779,7 +24759,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>260</v>
@@ -24891,7 +24871,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>261</v>
@@ -25005,7 +24985,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>262</v>
@@ -25117,7 +25097,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>266</v>
@@ -25229,7 +25209,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>269</v>
@@ -25343,7 +25323,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>274</v>
@@ -25369,13 +25349,13 @@
         <v>78</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25438,13 +25418,13 @@
         <v>78</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>78</v>
@@ -25455,7 +25435,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>278</v>
@@ -25567,7 +25547,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>282</v>
@@ -25679,7 +25659,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>283</v>
@@ -25793,7 +25773,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>284</v>
@@ -25909,7 +25889,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>285</v>
@@ -26023,7 +26003,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>291</v>
@@ -26137,7 +26117,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>296</v>
@@ -26249,7 +26229,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>300</v>
@@ -26361,7 +26341,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>301</v>
@@ -26475,7 +26455,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>302</v>
@@ -26591,7 +26571,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>303</v>
@@ -26703,7 +26683,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>308</v>
@@ -26817,7 +26797,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>312</v>
@@ -26929,7 +26909,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>315</v>
@@ -27041,7 +27021,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>317</v>
@@ -27153,7 +27133,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>320</v>
@@ -27265,7 +27245,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>323</v>
@@ -27377,7 +27357,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>327</v>
@@ -27489,7 +27469,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>328</v>
@@ -27603,7 +27583,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>329</v>
@@ -27719,7 +27699,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>330</v>
@@ -27831,7 +27811,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>333</v>
@@ -27943,7 +27923,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>336</v>
@@ -28057,7 +28037,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>340</v>
@@ -28171,7 +28151,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>344</v>
@@ -28285,13 +28265,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>78</v>
@@ -28399,7 +28379,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>260</v>
@@ -28511,7 +28491,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>261</v>
@@ -28625,7 +28605,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>262</v>
@@ -28737,7 +28717,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>266</v>
@@ -28849,7 +28829,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>269</v>
@@ -28963,7 +28943,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>274</v>
@@ -28989,13 +28969,13 @@
         <v>78</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -29058,13 +29038,13 @@
         <v>78</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>78</v>
@@ -29075,7 +29055,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>278</v>
@@ -29187,7 +29167,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>282</v>
@@ -29299,7 +29279,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>283</v>
@@ -29413,7 +29393,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>284</v>
@@ -29529,7 +29509,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>285</v>
@@ -29643,7 +29623,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>291</v>
@@ -29757,7 +29737,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>296</v>
@@ -29869,7 +29849,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>300</v>
@@ -29981,7 +29961,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>301</v>
@@ -30095,7 +30075,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>302</v>
@@ -30211,7 +30191,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>303</v>
@@ -30323,7 +30303,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>308</v>
@@ -30437,7 +30417,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>312</v>
@@ -30549,7 +30529,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>315</v>
@@ -30661,7 +30641,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>317</v>
@@ -30773,7 +30753,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>320</v>
@@ -30885,7 +30865,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>323</v>
@@ -30997,7 +30977,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>327</v>
@@ -31109,7 +31089,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>328</v>
@@ -31223,7 +31203,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>329</v>
@@ -31339,7 +31319,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>330</v>
@@ -31451,7 +31431,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>333</v>
@@ -31563,7 +31543,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>336</v>
@@ -31677,7 +31657,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>340</v>
@@ -31791,7 +31771,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>344</v>
@@ -31905,13 +31885,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>78</v>
@@ -32019,7 +31999,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>260</v>
@@ -32131,7 +32111,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>261</v>
@@ -32245,7 +32225,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>262</v>
@@ -32357,7 +32337,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>266</v>
@@ -32469,7 +32449,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>269</v>
@@ -32583,7 +32563,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>274</v>
@@ -32609,13 +32589,13 @@
         <v>78</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -32678,13 +32658,13 @@
         <v>78</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK263" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>78</v>
@@ -32695,7 +32675,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>278</v>
@@ -32807,7 +32787,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>282</v>
@@ -32919,7 +32899,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>283</v>
@@ -33033,7 +33013,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>284</v>
@@ -33149,7 +33129,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>285</v>
@@ -33263,7 +33243,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>291</v>
@@ -33377,7 +33357,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>296</v>
@@ -33489,7 +33469,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>300</v>
@@ -33601,7 +33581,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>301</v>
@@ -33715,7 +33695,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>302</v>
@@ -33831,7 +33811,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>303</v>
@@ -33943,7 +33923,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>308</v>
@@ -34057,7 +34037,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>312</v>
@@ -34169,7 +34149,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>315</v>
@@ -34281,7 +34261,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>317</v>
@@ -34393,7 +34373,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>320</v>
@@ -34505,7 +34485,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>323</v>
@@ -34617,7 +34597,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>327</v>
@@ -34729,7 +34709,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>328</v>
@@ -34843,7 +34823,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>329</v>
@@ -34959,7 +34939,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>330</v>
@@ -35071,7 +35051,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>333</v>
@@ -35183,7 +35163,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>336</v>
@@ -35297,7 +35277,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>340</v>
@@ -35411,7 +35391,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>344</v>
@@ -35525,13 +35505,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>78</v>
@@ -35639,7 +35619,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>260</v>
@@ -35751,7 +35731,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>261</v>
@@ -35865,7 +35845,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>262</v>
@@ -35977,7 +35957,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>266</v>
@@ -36089,7 +36069,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>269</v>
@@ -36203,14 +36183,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36229,13 +36209,13 @@
         <v>78</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -36298,13 +36278,13 @@
         <v>78</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK295" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>78</v>
@@ -36315,7 +36295,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>278</v>
@@ -36427,7 +36407,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>282</v>
@@ -36539,7 +36519,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>283</v>
@@ -36653,7 +36633,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>284</v>
@@ -36769,7 +36749,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>285</v>
@@ -36883,7 +36863,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>291</v>
@@ -36997,7 +36977,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>296</v>
@@ -37109,7 +37089,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>300</v>
@@ -37221,7 +37201,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>301</v>
@@ -37335,7 +37315,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>302</v>
@@ -37451,7 +37431,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>303</v>
@@ -37563,7 +37543,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>308</v>
@@ -37677,7 +37657,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>312</v>
@@ -37789,7 +37769,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>315</v>
@@ -37901,7 +37881,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>317</v>
@@ -38013,7 +37993,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>320</v>
@@ -38125,7 +38105,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>323</v>
@@ -38237,7 +38217,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>327</v>
@@ -38349,7 +38329,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>328</v>
@@ -38463,7 +38443,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>329</v>
@@ -38579,7 +38559,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>330</v>
@@ -38691,7 +38671,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>333</v>
@@ -38803,7 +38783,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>336</v>
@@ -38917,7 +38897,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>340</v>
@@ -39031,7 +39011,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>344</v>
@@ -39145,13 +39125,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>78</v>
@@ -39259,7 +39239,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>260</v>
@@ -39371,7 +39351,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>261</v>
@@ -39485,7 +39465,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>262</v>
@@ -39597,7 +39577,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>266</v>
@@ -39709,7 +39689,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>269</v>
@@ -39823,7 +39803,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>274</v>
@@ -39849,13 +39829,13 @@
         <v>78</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
@@ -39918,13 +39898,13 @@
         <v>78</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK327" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>78</v>
@@ -39935,7 +39915,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>278</v>
@@ -40047,7 +40027,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>282</v>
@@ -40159,7 +40139,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>283</v>
@@ -40273,7 +40253,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>284</v>
@@ -40389,7 +40369,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>285</v>
@@ -40503,7 +40483,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>291</v>
@@ -40617,7 +40597,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>296</v>
@@ -40729,7 +40709,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>300</v>
@@ -40841,7 +40821,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>301</v>
@@ -40955,7 +40935,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>302</v>
@@ -41071,7 +41051,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>303</v>
@@ -41183,7 +41163,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>308</v>
@@ -41297,7 +41277,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>312</v>
@@ -41409,7 +41389,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>315</v>
@@ -41521,7 +41501,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>317</v>
@@ -41633,7 +41613,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>320</v>
@@ -41745,7 +41725,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>323</v>
@@ -41857,7 +41837,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>327</v>
@@ -41969,7 +41949,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>328</v>
@@ -42083,7 +42063,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>329</v>
@@ -42199,7 +42179,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>330</v>
@@ -42311,7 +42291,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>333</v>
@@ -42423,7 +42403,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>336</v>
@@ -42537,7 +42517,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>340</v>
@@ -42651,7 +42631,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>344</v>
@@ -42765,13 +42745,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>78</v>
@@ -42879,7 +42859,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>260</v>
@@ -42991,7 +42971,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>261</v>
@@ -43105,7 +43085,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>262</v>
@@ -43217,7 +43197,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>266</v>
@@ -43329,7 +43309,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>269</v>
@@ -43426,7 +43406,7 @@
         <v>78</v>
       </c>
       <c r="AJ358" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AK358" t="s" s="2">
         <v>78</v>
@@ -43443,7 +43423,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>274</v>
@@ -43469,16 +43449,16 @@
         <v>78</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
@@ -43546,7 +43526,7 @@
         <v>78</v>
       </c>
       <c r="AL359" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AM359" t="s" s="2">
         <v>78</v>
@@ -43557,7 +43537,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>278</v>
@@ -43669,7 +43649,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>282</v>
@@ -43781,7 +43761,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>283</v>
@@ -43895,7 +43875,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>284</v>
@@ -44011,7 +43991,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>285</v>
@@ -44125,7 +44105,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>291</v>
@@ -44239,7 +44219,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>296</v>
@@ -44351,7 +44331,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>300</v>
@@ -44463,7 +44443,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>301</v>
@@ -44577,7 +44557,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>302</v>
@@ -44693,7 +44673,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>303</v>
@@ -44805,7 +44785,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>308</v>
@@ -44919,7 +44899,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>312</v>
@@ -45031,7 +45011,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>315</v>
@@ -45143,7 +45123,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>317</v>
@@ -45255,7 +45235,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>320</v>
@@ -45367,7 +45347,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>323</v>
@@ -45479,7 +45459,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>327</v>
@@ -45591,7 +45571,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>328</v>
@@ -45705,7 +45685,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>329</v>
@@ -45821,7 +45801,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>330</v>
@@ -45933,7 +45913,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>333</v>
@@ -46045,7 +46025,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>336</v>
@@ -46159,7 +46139,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>340</v>
@@ -46273,7 +46253,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>344</v>
@@ -46387,13 +46367,13 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D385" t="s" s="2">
         <v>78</v>
@@ -46501,7 +46481,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>260</v>
@@ -46613,7 +46593,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>261</v>
@@ -46727,7 +46707,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>262</v>
@@ -46839,7 +46819,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>266</v>
@@ -46951,7 +46931,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>269</v>
@@ -47048,7 +47028,7 @@
         <v>78</v>
       </c>
       <c r="AJ390" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AK390" t="s" s="2">
         <v>78</v>
@@ -47065,7 +47045,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>274</v>
@@ -47091,16 +47071,16 @@
         <v>78</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="O391" s="2"/>
       <c r="P391" t="s" s="2">
@@ -47162,13 +47142,13 @@
         <v>78</v>
       </c>
       <c r="AJ391" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AK391" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL391" t="s" s="2">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="AM391" t="s" s="2">
         <v>78</v>
@@ -47179,7 +47159,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>278</v>
@@ -47291,7 +47271,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>282</v>
@@ -47403,7 +47383,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>283</v>
@@ -47517,7 +47497,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>284</v>
@@ -47633,7 +47613,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>285</v>
@@ -47747,7 +47727,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>291</v>
@@ -47861,7 +47841,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>296</v>
@@ -47973,7 +47953,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>300</v>
@@ -48085,7 +48065,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>301</v>
@@ -48199,7 +48179,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>302</v>
@@ -48315,7 +48295,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>303</v>
@@ -48427,7 +48407,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>308</v>
@@ -48541,7 +48521,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>312</v>
@@ -48653,7 +48633,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>315</v>
@@ -48765,7 +48745,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>317</v>
@@ -48877,7 +48857,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>320</v>
@@ -48989,7 +48969,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>323</v>
@@ -49101,7 +49081,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>327</v>
@@ -49213,7 +49193,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>328</v>
@@ -49327,7 +49307,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>329</v>
@@ -49443,7 +49423,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>330</v>
@@ -49555,7 +49535,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>333</v>
@@ -49667,7 +49647,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>336</v>
@@ -49781,7 +49761,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>340</v>
@@ -49895,7 +49875,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>344</v>
@@ -50009,13 +49989,13 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>78</v>
@@ -50123,7 +50103,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>260</v>
@@ -50235,7 +50215,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>261</v>
@@ -50349,7 +50329,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>262</v>
@@ -50461,7 +50441,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>266</v>
@@ -50573,7 +50553,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>269</v>
@@ -50670,7 +50650,7 @@
         <v>78</v>
       </c>
       <c r="AJ422" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AK422" t="s" s="2">
         <v>78</v>
@@ -50687,14 +50667,14 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" t="s" s="2">
@@ -50713,16 +50693,16 @@
         <v>78</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
@@ -50784,13 +50764,13 @@
         <v>78</v>
       </c>
       <c r="AJ423" t="s" s="2">
-        <v>783</v>
+        <v>78</v>
       </c>
       <c r="AK423" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="AL423" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="AM423" t="s" s="2">
         <v>78</v>
@@ -50801,7 +50781,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>278</v>
@@ -50913,7 +50893,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>282</v>
@@ -51025,7 +51005,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>283</v>
@@ -51139,7 +51119,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>284</v>
@@ -51255,7 +51235,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>285</v>
@@ -51369,7 +51349,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>291</v>
@@ -51483,7 +51463,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>296</v>
@@ -51595,7 +51575,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>300</v>
@@ -51707,7 +51687,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>301</v>
@@ -51821,7 +51801,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>302</v>
@@ -51937,7 +51917,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>303</v>
@@ -52049,7 +52029,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>308</v>
@@ -52163,7 +52143,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>312</v>
@@ -52275,7 +52255,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>315</v>
@@ -52387,7 +52367,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>317</v>
@@ -52499,7 +52479,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>320</v>
@@ -52611,7 +52591,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>323</v>
@@ -52723,7 +52703,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>327</v>
@@ -52835,7 +52815,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>328</v>
@@ -52949,7 +52929,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>329</v>
@@ -53065,7 +53045,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>330</v>
@@ -53177,7 +53157,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>333</v>
@@ -53289,7 +53269,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>336</v>
@@ -53403,7 +53383,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>340</v>
@@ -53517,7 +53497,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>344</v>
@@ -53631,10 +53611,10 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" t="s" s="2">
@@ -53657,7 +53637,7 @@
         <v>89</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="L449" t="s" s="2">
         <v>91</v>
@@ -53666,10 +53646,10 @@
         <v>92</v>
       </c>
       <c r="N449" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="O449" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="P449" t="s" s="2">
         <v>78</v>
@@ -53718,7 +53698,7 @@
         <v>78</v>
       </c>
       <c r="AF449" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="AG449" t="s" s="2">
         <v>79</v>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationcard.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-document-medicationcard.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -411,7 +411,7 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -443,7 +443,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -461,7 +461,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -499,7 +499,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -508,7 +508,7 @@
     <t>Bundle.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
 </t>
   </si>
   <si>
@@ -582,7 +582,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -854,7 +854,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>Bundle.entry.link</t>
@@ -1141,6 +1141,10 @@
     <t>URI for resource (Absolute URL server address or URI for UUID/OID)</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ch-core-doc-1:The fullUrl must be an absolute URL server address or an UUID {startsWith('http') or startsWith('urn:uuid:') = true}</t>
+  </si>
+  <si>
     <t>Bundle.entry:Composition.resource</t>
   </si>
   <si>
@@ -1723,11 +1727,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -2167,10 +2171,6 @@
   </si>
   <si>
     <t>Bundle.entry:Binary.fullUrl</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-doc-1:The fullUrl must be an absolute URL server address or an UUID {startsWith('http') or startsWith('urn:uuid:') = true}</t>
   </si>
   <si>
     <t>Bundle.entry:Binary.resource</t>
@@ -2858,17 +2858,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.71875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.76171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2877,26 +2877,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5635,7 +5635,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>221</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>78</v>
@@ -10182,7 +10182,7 @@
         <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>78</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10824,7 +10824,7 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -10841,7 +10841,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>274</v>
@@ -10867,16 +10867,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10944,10 +10944,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>278</v>
@@ -11067,7 +11067,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>282</v>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>283</v>
@@ -11293,7 +11293,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>284</v>
@@ -11409,7 +11409,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>285</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>291</v>
@@ -11637,7 +11637,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>296</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>300</v>
@@ -11861,7 +11861,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>301</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>302</v>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>303</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>308</v>
@@ -12317,7 +12317,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>312</v>
@@ -12429,7 +12429,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>315</v>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>317</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>320</v>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>323</v>
@@ -12877,7 +12877,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>327</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>328</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>329</v>
@@ -13219,7 +13219,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>330</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>333</v>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>336</v>
@@ -13557,7 +13557,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>340</v>
@@ -13671,7 +13671,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>344</v>
@@ -13785,13 +13785,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>78</v>
@@ -13816,7 +13816,7 @@
         <v>234</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>257</v>
@@ -13899,7 +13899,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>260</v>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>261</v>
@@ -14125,7 +14125,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>262</v>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>266</v>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>269</v>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>88</v>
@@ -14446,7 +14446,7 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14463,14 +14463,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14489,13 +14489,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14564,10 +14564,10 @@
         <v>78</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>278</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>282</v>
@@ -14799,7 +14799,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>283</v>
@@ -14913,7 +14913,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>284</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>285</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>291</v>
@@ -15257,7 +15257,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>296</v>
@@ -15369,7 +15369,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>300</v>
@@ -15481,7 +15481,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>301</v>
@@ -15595,7 +15595,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>302</v>
@@ -15711,7 +15711,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>303</v>
@@ -15823,7 +15823,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>308</v>
@@ -15937,7 +15937,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>312</v>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>315</v>
@@ -16161,7 +16161,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>317</v>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>320</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>323</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>327</v>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>328</v>
@@ -16723,7 +16723,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>329</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>330</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>333</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>336</v>
@@ -17177,7 +17177,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>340</v>
@@ -17291,7 +17291,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>344</v>
@@ -17405,13 +17405,13 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>78</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>260</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>261</v>
@@ -17745,7 +17745,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>262</v>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>266</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>269</v>
@@ -17980,7 +17980,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>88</v>
@@ -18066,7 +18066,7 @@
         <v>78</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>78</v>
@@ -18083,7 +18083,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>274</v>
@@ -18109,13 +18109,13 @@
         <v>78</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18181,10 +18181,10 @@
         <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>78</v>
@@ -18195,7 +18195,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>278</v>
@@ -18307,7 +18307,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>282</v>
@@ -18419,7 +18419,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>283</v>
@@ -18533,7 +18533,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>284</v>
@@ -18649,7 +18649,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>285</v>
@@ -18763,7 +18763,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>291</v>
@@ -18877,7 +18877,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>296</v>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>300</v>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>301</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>302</v>
@@ -19331,7 +19331,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>303</v>
@@ -19443,7 +19443,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>308</v>
@@ -19557,7 +19557,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>312</v>
@@ -19669,7 +19669,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>315</v>
@@ -19781,7 +19781,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>317</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>320</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>323</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>327</v>
@@ -20229,7 +20229,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>328</v>
@@ -20343,7 +20343,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>329</v>
@@ -20459,7 +20459,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>330</v>
@@ -20571,7 +20571,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>333</v>
@@ -20683,7 +20683,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>336</v>
@@ -20797,7 +20797,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>340</v>
@@ -20911,7 +20911,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>344</v>
@@ -21025,13 +21025,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>78</v>
@@ -21139,7 +21139,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>260</v>
@@ -21251,7 +21251,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>261</v>
@@ -21365,7 +21365,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>262</v>
@@ -21477,7 +21477,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>266</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>269</v>
@@ -21600,7 +21600,7 @@
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>88</v>
@@ -21686,7 +21686,7 @@
         <v>78</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>78</v>
@@ -21703,7 +21703,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>274</v>
@@ -21729,13 +21729,13 @@
         <v>78</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21801,10 +21801,10 @@
         <v>78</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>78</v>
@@ -21815,7 +21815,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>278</v>
@@ -21927,7 +21927,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>282</v>
@@ -22039,7 +22039,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>283</v>
@@ -22153,7 +22153,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>284</v>
@@ -22269,7 +22269,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>285</v>
@@ -22383,7 +22383,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>291</v>
@@ -22497,7 +22497,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>296</v>
@@ -22609,7 +22609,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>300</v>
@@ -22721,7 +22721,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>301</v>
@@ -22835,7 +22835,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>302</v>
@@ -22951,7 +22951,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>303</v>
@@ -23063,7 +23063,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>308</v>
@@ -23177,7 +23177,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>312</v>
@@ -23289,7 +23289,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>315</v>
@@ -23401,7 +23401,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>317</v>
@@ -23513,7 +23513,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>320</v>
@@ -23625,7 +23625,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>323</v>
@@ -23737,7 +23737,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>327</v>
@@ -23849,7 +23849,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>328</v>
@@ -23963,7 +23963,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>329</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>330</v>
@@ -24191,7 +24191,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>333</v>
@@ -24303,7 +24303,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>336</v>
@@ -24417,7 +24417,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>340</v>
@@ -24531,7 +24531,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>344</v>
@@ -24645,13 +24645,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>78</v>
@@ -24759,7 +24759,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>260</v>
@@ -24871,7 +24871,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>261</v>
@@ -24985,7 +24985,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>262</v>
@@ -25097,7 +25097,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>266</v>
@@ -25209,7 +25209,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>269</v>
@@ -25220,7 +25220,7 @@
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>88</v>
@@ -25306,7 +25306,7 @@
         <v>78</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>78</v>
@@ -25323,7 +25323,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>274</v>
@@ -25349,13 +25349,13 @@
         <v>78</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25421,10 +25421,10 @@
         <v>78</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>78</v>
@@ -25435,7 +25435,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>278</v>
@@ -25547,7 +25547,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>282</v>
@@ -25659,7 +25659,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>283</v>
@@ -25773,7 +25773,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>284</v>
@@ -25889,7 +25889,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>285</v>
@@ -26003,7 +26003,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>291</v>
@@ -26117,7 +26117,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>296</v>
@@ -26229,7 +26229,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>300</v>
@@ -26341,7 +26341,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>301</v>
@@ -26455,7 +26455,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>302</v>
@@ -26571,7 +26571,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>303</v>
@@ -26683,7 +26683,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>308</v>
@@ -26797,7 +26797,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>312</v>
@@ -26909,7 +26909,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>315</v>
@@ -27021,7 +27021,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>317</v>
@@ -27133,7 +27133,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>320</v>
@@ -27245,7 +27245,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>323</v>
@@ -27357,7 +27357,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>327</v>
@@ -27469,7 +27469,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>328</v>
@@ -27583,7 +27583,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>329</v>
@@ -27699,7 +27699,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>330</v>
@@ -27811,7 +27811,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>333</v>
@@ -27923,7 +27923,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>336</v>
@@ -28037,7 +28037,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>340</v>
@@ -28151,7 +28151,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>344</v>
@@ -28265,13 +28265,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>78</v>
@@ -28379,7 +28379,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>260</v>
@@ -28491,7 +28491,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>261</v>
@@ -28605,7 +28605,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>262</v>
@@ -28717,7 +28717,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>266</v>
@@ -28829,7 +28829,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>269</v>
@@ -28840,7 +28840,7 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>88</v>
@@ -28926,7 +28926,7 @@
         <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK230" t="s" s="2">
         <v>78</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>274</v>
@@ -28969,13 +28969,13 @@
         <v>78</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -29044,7 +29044,7 @@
         <v>78</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>78</v>
@@ -29055,7 +29055,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>278</v>
@@ -29167,7 +29167,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>282</v>
@@ -29279,7 +29279,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>283</v>
@@ -29393,7 +29393,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>284</v>
@@ -29509,7 +29509,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>285</v>
@@ -29623,7 +29623,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>291</v>
@@ -29737,7 +29737,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>296</v>
@@ -29849,7 +29849,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>300</v>
@@ -29961,7 +29961,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>301</v>
@@ -30075,7 +30075,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>302</v>
@@ -30191,7 +30191,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>303</v>
@@ -30303,7 +30303,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>308</v>
@@ -30417,7 +30417,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>312</v>
@@ -30529,7 +30529,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>315</v>
@@ -30641,7 +30641,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>317</v>
@@ -30753,7 +30753,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>320</v>
@@ -30865,7 +30865,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>323</v>
@@ -30977,7 +30977,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>327</v>
@@ -31089,7 +31089,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>328</v>
@@ -31203,7 +31203,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>329</v>
@@ -31319,7 +31319,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>330</v>
@@ -31431,7 +31431,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>333</v>
@@ -31543,7 +31543,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>336</v>
@@ -31657,7 +31657,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>340</v>
@@ -31771,7 +31771,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>344</v>
@@ -31885,13 +31885,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>78</v>
@@ -31999,7 +31999,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>260</v>
@@ -32111,7 +32111,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>261</v>
@@ -32225,7 +32225,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>262</v>
@@ -32337,7 +32337,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>266</v>
@@ -32449,7 +32449,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>269</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="E262" s="2"/>
       <c r="F262" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G262" t="s" s="2">
         <v>88</v>
@@ -32546,7 +32546,7 @@
         <v>78</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK262" t="s" s="2">
         <v>78</v>
@@ -32563,7 +32563,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>274</v>
@@ -32589,13 +32589,13 @@
         <v>78</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -32664,7 +32664,7 @@
         <v>78</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>78</v>
@@ -32675,7 +32675,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>278</v>
@@ -32787,7 +32787,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>282</v>
@@ -32899,7 +32899,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>283</v>
@@ -33013,7 +33013,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>284</v>
@@ -33129,7 +33129,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>285</v>
@@ -33243,7 +33243,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>291</v>
@@ -33357,7 +33357,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>296</v>
@@ -33469,7 +33469,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>300</v>
@@ -33581,7 +33581,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>301</v>
@@ -33695,7 +33695,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>302</v>
@@ -33811,7 +33811,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>303</v>
@@ -33923,7 +33923,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>308</v>
@@ -34037,7 +34037,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>312</v>
@@ -34149,7 +34149,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>315</v>
@@ -34261,7 +34261,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>317</v>
@@ -34373,7 +34373,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>320</v>
@@ -34485,7 +34485,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>323</v>
@@ -34597,7 +34597,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>327</v>
@@ -34709,7 +34709,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>328</v>
@@ -34823,7 +34823,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>329</v>
@@ -34939,7 +34939,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>330</v>
@@ -35051,7 +35051,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>333</v>
@@ -35163,7 +35163,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>336</v>
@@ -35277,7 +35277,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>340</v>
@@ -35391,7 +35391,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>344</v>
@@ -35505,13 +35505,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>78</v>
@@ -35619,7 +35619,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>260</v>
@@ -35731,7 +35731,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>261</v>
@@ -35845,7 +35845,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>262</v>
@@ -35957,7 +35957,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>266</v>
@@ -36069,7 +36069,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>269</v>
@@ -36080,7 +36080,7 @@
       </c>
       <c r="E294" s="2"/>
       <c r="F294" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G294" t="s" s="2">
         <v>88</v>
@@ -36166,7 +36166,7 @@
         <v>78</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK294" t="s" s="2">
         <v>78</v>
@@ -36183,14 +36183,14 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
@@ -36209,13 +36209,13 @@
         <v>78</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -36284,7 +36284,7 @@
         <v>78</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>78</v>
@@ -36295,7 +36295,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>278</v>
@@ -36407,7 +36407,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>282</v>
@@ -36519,7 +36519,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>283</v>
@@ -36633,7 +36633,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>284</v>
@@ -36749,7 +36749,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>285</v>
@@ -36863,7 +36863,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>291</v>
@@ -36977,7 +36977,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>296</v>
@@ -37089,7 +37089,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>300</v>
@@ -37201,7 +37201,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>301</v>
@@ -37315,7 +37315,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>302</v>
@@ -37431,7 +37431,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>303</v>
@@ -37543,7 +37543,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>308</v>
@@ -37657,7 +37657,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>312</v>
@@ -37769,7 +37769,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>315</v>
@@ -37881,7 +37881,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>317</v>
@@ -37993,7 +37993,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>320</v>
@@ -38105,7 +38105,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>323</v>
@@ -38217,7 +38217,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>327</v>
@@ -38329,7 +38329,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>328</v>
@@ -38443,7 +38443,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>329</v>
@@ -38559,7 +38559,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>330</v>
@@ -38671,7 +38671,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>333</v>
@@ -38783,7 +38783,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>336</v>
@@ -38897,7 +38897,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>340</v>
@@ -39011,7 +39011,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>344</v>
@@ -39125,13 +39125,13 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D321" t="s" s="2">
         <v>78</v>
@@ -39239,7 +39239,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>260</v>
@@ -39351,7 +39351,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>261</v>
@@ -39465,7 +39465,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>262</v>
@@ -39577,7 +39577,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>266</v>
@@ -39689,7 +39689,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>269</v>
@@ -39700,7 +39700,7 @@
       </c>
       <c r="E326" s="2"/>
       <c r="F326" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G326" t="s" s="2">
         <v>88</v>
@@ -39786,7 +39786,7 @@
         <v>78</v>
       </c>
       <c r="AJ326" t="s" s="2">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="AK326" t="s" s="2">
         <v>78</v>
@@ -39803,7 +39803,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>274</v>
@@ -39829,13 +39829,13 @@
         <v>78</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
@@ -39904,7 +39904,7 @@
         <v>78</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>78</v>
@@ -39915,7 +39915,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>278</v>
@@ -40027,7 +40027,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>282</v>
@@ -40139,7 +40139,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>283</v>
@@ -40253,7 +40253,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>284</v>
@@ -40369,7 +40369,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>285</v>
@@ -40483,7 +40483,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>291</v>
@@ -40597,7 +40597,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>296</v>
@@ -40709,7 +40709,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>300</v>
@@ -40821,7 +40821,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>301</v>
@@ -40935,7 +40935,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>302</v>
@@ -41051,7 +41051,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>303</v>
@@ -41163,7 +41163,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>308</v>
@@ -41277,7 +41277,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>312</v>
@@ -41389,7 +41389,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>315</v>
@@ -41501,7 +41501,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>317</v>
@@ -41613,7 +41613,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>320</v>
@@ -41725,7 +41725,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>323</v>
@@ -41837,7 +41837,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>327</v>
@@ -41949,7 +41949,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>328</v>
@@ -42063,7 +42063,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>329</v>
@@ -42179,7 +42179,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>330</v>
@@ -42291,7 +42291,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>333</v>
@@ -42403,7 +42403,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>336</v>
@@ -42517,7 +42517,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>340</v>
@@ -42631,7 +42631,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>344</v>
@@ -42745,13 +42745,13 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>254</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>78</v>
@@ -42859,7 +42859,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>260</v>
@@ -42971,7 +42971,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>261</v>
@@ -43085,7 +43085,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>262</v>
@@ -43197,7 +43197,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>266</v>
@@ -43309,7 +43309,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>269</v>
@@ -43406,7 +43406,7 @@
         <v>78</v>
       </c>
       <c r="AJ358" t="s" s="2">
-        <v>696</v>
+        <v>357</v>
       </c>
       <c r="AK358" t="s" s="2">
         <v>78</v>
@@ -47028,7 +47028,7 @@
         <v>78</v>
       </c>
       <c r="AJ390" t="s" s="2">
-        <v>696</v>
+        <v>357</v>
       </c>
       <c r="AK390" t="s" s="2">
         <v>78</v>
@@ -50008,7 +50008,7 @@
         <v>88</v>
       </c>
       <c r="H417" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I417" t="s" s="2">
         <v>78</v>
@@ -50650,7 +50650,7 @@
         <v>78</v>
       </c>
       <c r="AJ422" t="s" s="2">
-        <v>696</v>
+        <v>357</v>
       </c>
       <c r="AK422" t="s" s="2">
         <v>78</v>
@@ -53727,12 +53727,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN449">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
